--- a/src/main/resources/templates/Temp_Thao.xlsx
+++ b/src/main/resources/templates/Temp_Thao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B967EE2-0622-43A2-A68F-C435C624C25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18F2806-0579-4966-A217-10A51A66A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>Sản phẩm</t>
   </si>
   <si>
-    <t>Giá</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Thảo bán nhóm ${time}</t>
+  </si>
+  <si>
+    <t>Giá CTV</t>
   </si>
 </sst>
 </file>
@@ -335,6 +335,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,9 +348,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,19 +704,19 @@
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>41</v>
+      <c r="B1" s="19" t="s">
+        <v>40</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
@@ -778,52 +778,52 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:62" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:62" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
@@ -2177,24 +2177,24 @@
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>42</v>
+      <c r="B1" s="19" t="s">
+        <v>41</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
@@ -2251,72 +2251,72 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:62" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:62" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:62" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
@@ -4079,6 +4079,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="K3:K4"/>
@@ -4095,7 +4096,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4156,36 +4156,36 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -8837,40 +8837,40 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:54" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
@@ -13674,8 +13674,8 @@
     <col min="2" max="2" width="5.7265625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.81640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" style="7" customWidth="1"/>
@@ -13707,7 +13707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="22"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -13726,44 +13726,44 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:54" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>37</v>
+      <c r="E3" s="22" t="s">
+        <v>18</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>37</v>
+      <c r="F3" s="22" t="s">
+        <v>42</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:54" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
